--- a/SVD_Files/BKP.xlsx
+++ b/SVD_Files/BKP.xlsx
@@ -541,12 +541,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -660,33 +668,33 @@
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -695,19 +703,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -715,7 +723,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -998,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,7 +1577,7 @@
       <c r="D22" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="23" t="s">
@@ -1581,7 +1589,7 @@
       <c r="H22" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="I22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="J22" s="24" t="s">
@@ -1601,7 +1609,7 @@
       <c r="D23" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="20" t="s">
@@ -1613,7 +1621,7 @@
       <c r="H23" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="J23" s="25" t="s">
@@ -1627,10 +1635,10 @@
       <c r="B24" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="33" t="s">
+      <c r="C24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="33" t="s">
@@ -1659,10 +1667,10 @@
       <c r="B25" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="28" t="s">
+      <c r="C25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="17" t="s">
@@ -1691,10 +1699,10 @@
       <c r="B26" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="34" t="s">
+      <c r="C26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="34" t="s">

--- a/SVD_Files/BKP.xlsx
+++ b/SVD_Files/BKP.xlsx
@@ -654,7 +654,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -662,68 +662,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1006,450 +1032,478 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="86.7109375" customWidth="1"/>
+    <col min="10" max="10" width="78.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="C3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="C4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="C5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="C6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="C7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="C8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="C9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="C10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="19" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="21" t="s">
         <v>18</v>
       </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="C15" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="15" t="s">
+      <c r="C16" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+    <row r="17" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
         <v>6</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="19" t="s">
+      <c r="C17" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+    <row r="18" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
         <v>6</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="17" t="s">
+      <c r="C18" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="28" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="30" t="s">
@@ -1461,1182 +1515,1253 @@
       <c r="H18" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="17" t="s">
+      <c r="I18" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="28" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="A19" s="22">
+        <v>7</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" t="s">
-        <v>7</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="C19" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="19" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="C20" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="22">
         <v>11</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" s="14" t="s">
+      <c r="C21" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+    <row r="22" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="24" t="s">
+      <c r="C22" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="35" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+    <row r="23" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="25" t="s">
+      <c r="C23" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31">
+    <row r="24" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="37">
         <v>14</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="J24" s="32" t="s">
+      <c r="C24" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="38" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+    <row r="25" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" s="17" t="s">
+      <c r="C25" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+    <row r="26" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J26" s="27" t="s">
+      <c r="C26" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="41" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
+      <c r="A27" s="22">
         <v>15</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="C27" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="C28" s="12">
+    <row r="28" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="43"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44">
         <v>0</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="44">
         <v>0</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="44">
         <v>0</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="44">
         <v>0</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="44">
         <v>0</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="44">
         <v>0</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="44">
         <v>0</v>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="C29" s="13" t="s">
+    <row r="29" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="43"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="I29" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="44" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+    </row>
+    <row r="32" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="21" t="s">
         <v>19</v>
       </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
+      <c r="A33" s="22">
         <v>0</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="C33" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
+      <c r="A34" s="22">
         <v>1</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="C34" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="19" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="C35" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="19" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
+      <c r="A36" s="22">
         <v>4</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="C36" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" s="19" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="C37" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="19" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
+      <c r="A38" s="22">
         <v>13</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="C38" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" s="19" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
+      <c r="A39" s="22">
         <v>14</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I39" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="C39" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="19"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
+      <c r="A40" s="22">
         <v>15</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="C40" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="C41" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" s="19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
+      <c r="A42" s="22">
         <v>21</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="C42" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42" s="19" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
+      <c r="A43" s="22">
         <v>22</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="C43" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
+      <c r="A44" s="22">
         <v>23</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J44" t="s">
+      <c r="C44" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J44" s="19" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H45" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I45" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J45" t="s">
+      <c r="C45" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="10">
+      <c r="A46" s="22">
         <v>30</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C46" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I46" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J46" t="s">
+      <c r="C46" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46" s="19" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
+      <c r="A47" s="22">
         <v>31</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I47" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="C47" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" s="19" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
-      <c r="C48" s="12">
+    <row r="48" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="43"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44">
         <v>0</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="44">
         <v>0</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="44">
         <v>0</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="44">
         <v>0</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="44">
         <v>0</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H48" s="44">
         <v>0</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I48" s="44">
         <v>0</v>
       </c>
-      <c r="J48" s="12" t="s">
+      <c r="J48" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
-      <c r="C49" s="13" t="s">
+    <row r="49" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="43"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="G49" s="13" t="s">
+      <c r="G49" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="H49" s="13" t="s">
+      <c r="H49" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="I49" s="13" t="s">
+      <c r="I49" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="J49" s="12" t="s">
+      <c r="J49" s="44" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+    </row>
+    <row r="52" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="10">
+      <c r="A53" s="22">
         <v>0</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H53" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I53" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J53" t="s">
+      <c r="C53" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J53" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
+      <c r="A54" s="22">
         <v>1</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C54" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G54" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H54" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I54" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J54" t="s">
+      <c r="C54" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J54" s="19" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
+      <c r="A55" s="22">
         <v>2</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C55" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H55" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I55" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J55" t="s">
+      <c r="C55" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J55" s="19" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="10">
+      <c r="A56" s="22">
         <v>3</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H56" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I56" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J56" t="s">
+      <c r="C56" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J56" s="19" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="10">
+      <c r="A57" s="22">
         <v>4</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H57" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I57" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J57" t="s">
+      <c r="C57" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I57" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J57" s="19" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="10">
+      <c r="A58" s="22">
         <v>5</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H58" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I58" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J58" t="s">
+      <c r="C58" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J58" s="19" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="10">
+      <c r="A59" s="22">
         <v>6</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G59" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H59" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I59" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J59" t="s">
+      <c r="C59" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I59" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J59" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="C60" s="12">
+    <row r="60" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="43"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44">
         <v>0</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D60" s="44">
         <v>0</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E60" s="44">
         <v>0</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F60" s="44">
         <v>0</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G60" s="44">
         <v>0</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H60" s="44">
         <v>0</v>
       </c>
-      <c r="I60" s="12">
+      <c r="I60" s="44">
         <v>0</v>
       </c>
-      <c r="J60" s="12" t="s">
+      <c r="J60" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
-      <c r="C61" s="13" t="s">
+    <row r="61" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="43"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D61" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="E61" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="F61" s="13" t="s">
+      <c r="F61" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="G61" s="13" t="s">
+      <c r="G61" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="H61" s="13" t="s">
+      <c r="H61" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="I61" s="13" t="s">
+      <c r="I61" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="J61" s="12" t="s">
+      <c r="J61" s="44" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>